--- a/experimental_weights.xlsx
+++ b/experimental_weights.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\OneDrive - Virginia Tech\school\Team_45_FFUAV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21AAC536-8657-4EFD-8BB9-6B6F02240EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9B4828-2F1A-4884-BE8D-139041326938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
   <si>
     <t>Airframe</t>
   </si>
@@ -90,13 +90,22 @@
   </si>
   <si>
     <t>leg joint</t>
+  </si>
+  <si>
+    <t>Part</t>
+  </si>
+  <si>
+    <t>Weight (g)</t>
+  </si>
+  <si>
+    <t>49.74 lbs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +137,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -137,7 +153,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -160,31 +176,21 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -500,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S14"/>
+  <dimension ref="A1:S26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,231 +520,320 @@
     <col min="6" max="6" width="16" customWidth="1"/>
     <col min="7" max="7" width="24" customWidth="1"/>
     <col min="8" max="8" width="11.140625" customWidth="1"/>
+    <col min="10" max="10" width="25" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" customWidth="1"/>
+    <col min="12" max="12" width="20.5703125" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="R1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" s="5">
+        <f>M5+M18</f>
+        <v>22561</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="F1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="R1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="S1" s="3">
-        <f>I3+D3</f>
-        <v>13931</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:19" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+    </row>
+    <row r="5" spans="1:19" ht="21" x14ac:dyDescent="0.35">
+      <c r="J5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="K5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="L5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="5">
-        <f>SUM(B4:B14)</f>
+      <c r="M5" s="3">
+        <f xml:space="preserve"> SUM(K6:K13)</f>
         <v>8359</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="5">
-        <f>SUM(G4:G14)</f>
-        <v>5572</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    </row>
+    <row r="6" spans="1:19" ht="21" x14ac:dyDescent="0.35">
+      <c r="J6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1">
+      <c r="K6" s="4">
         <v>2939</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="1">
-        <v>4638</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="1:19" ht="21" x14ac:dyDescent="0.35">
+      <c r="J7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="K7" s="4">
         <v>3894</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="F5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="1">
-        <v>744</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="S7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="21" x14ac:dyDescent="0.35">
+      <c r="J8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="K8" s="4">
         <v>496</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="F6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+    </row>
+    <row r="9" spans="1:19" ht="21" x14ac:dyDescent="0.35">
+      <c r="J9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="K9" s="4">
         <v>428</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="F7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="4">
-        <v>190</v>
-      </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+    </row>
+    <row r="10" spans="1:19" ht="21" x14ac:dyDescent="0.35">
+      <c r="J10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1">
+      <c r="K10" s="4">
         <v>380</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+    </row>
+    <row r="11" spans="1:19" ht="21" x14ac:dyDescent="0.35">
+      <c r="J11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="1">
+      <c r="K11" s="4">
         <v>60</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="1">
-        <v>94</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="1">
-        <f>17*4</f>
-        <v>68</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="O11" s="1">
-        <v>8690</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:19" ht="21" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="4">
+        <v>94</v>
+      </c>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+    </row>
+    <row r="13" spans="1:19" ht="21" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="J13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="4">
+        <f>17*4</f>
+        <v>68</v>
+      </c>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="J16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+    </row>
+    <row r="18" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="3">
+        <f>SUM(B4:B14)</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M18" s="3">
+        <f>SUM(K19:K29)</f>
+        <v>14202</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="4">
+        <v>2939</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="J19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K19" s="4">
+        <v>4638</v>
+      </c>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+    </row>
+    <row r="20" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="4">
+        <v>3894</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="J20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K20" s="4">
+        <v>744</v>
+      </c>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+    </row>
+    <row r="21" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="4">
+        <v>496</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="J21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K21" s="4">
+        <v>8630</v>
+      </c>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+    </row>
+    <row r="22" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="4">
+        <v>428</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="J22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K22" s="4">
+        <v>190</v>
+      </c>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+    </row>
+    <row r="23" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="4">
+        <v>380</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+      <c r="A24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="4">
+        <v>60</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+      <c r="A25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="4">
+        <v>94</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+      <c r="A26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="4">
+        <f>17*4</f>
+        <v>68</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="F1:I2"/>
+  <mergeCells count="3">
+    <mergeCell ref="A16:D17"/>
+    <mergeCell ref="J16:M17"/>
+    <mergeCell ref="J3:M4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/experimental_weights.xlsx
+++ b/experimental_weights.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\OneDrive - Virginia Tech\school\Team_45_FFUAV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\OneDrive - Virginia Tech\Documents\GitHub\Team_45_FFUAV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9B4828-2F1A-4884-BE8D-139041326938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E80988D-6B3F-48B8-B05A-146DA29E60DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15360" yWindow="0" windowWidth="15360" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -508,26 +508,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
     <col min="7" max="7" width="24" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" customWidth="1"/>
     <col min="10" max="10" width="25" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" customWidth="1"/>
-    <col min="12" max="12" width="20.5703125" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.5703125" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" customWidth="1"/>
+    <col min="12" max="12" width="20.5546875" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="R1" s="2" t="s">
         <v>12</v>
       </c>
@@ -536,7 +536,7 @@
         <v>22561</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="J3" s="6" t="s">
         <v>0</v>
       </c>
@@ -544,13 +544,13 @@
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
     </row>
-    <row r="5" spans="1:19" ht="21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" ht="21" x14ac:dyDescent="0.4">
       <c r="J5" s="3" t="s">
         <v>3</v>
       </c>
@@ -565,7 +565,7 @@
         <v>8359</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" ht="21" x14ac:dyDescent="0.4">
       <c r="J6" s="4" t="s">
         <v>1</v>
       </c>
@@ -575,7 +575,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="1:19" ht="21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" ht="21" x14ac:dyDescent="0.4">
       <c r="J7" s="4" t="s">
         <v>4</v>
       </c>
@@ -588,7 +588,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" ht="21" x14ac:dyDescent="0.4">
       <c r="J8" s="4" t="s">
         <v>5</v>
       </c>
@@ -598,7 +598,7 @@
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
     </row>
-    <row r="9" spans="1:19" ht="21" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" ht="21" x14ac:dyDescent="0.4">
       <c r="J9" s="4" t="s">
         <v>6</v>
       </c>
@@ -608,7 +608,7 @@
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
     </row>
-    <row r="10" spans="1:19" ht="21" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" ht="21" x14ac:dyDescent="0.4">
       <c r="J10" s="4" t="s">
         <v>8</v>
       </c>
@@ -618,7 +618,7 @@
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
     </row>
-    <row r="11" spans="1:19" ht="21" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" ht="21" x14ac:dyDescent="0.4">
       <c r="J11" s="4" t="s">
         <v>13</v>
       </c>
@@ -629,7 +629,7 @@
       <c r="M11" s="4"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:19" ht="21" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" ht="21" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -643,7 +643,7 @@
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
     </row>
-    <row r="13" spans="1:19" ht="21" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" ht="21" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -658,13 +658,13 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>0</v>
       </c>
@@ -678,7 +678,7 @@
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -688,7 +688,7 @@
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
     </row>
-    <row r="18" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" ht="21" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
         <v>3</v>
       </c>
@@ -716,7 +716,7 @@
         <v>14202</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" ht="21" x14ac:dyDescent="0.4">
       <c r="A19" s="4" t="s">
         <v>1</v>
       </c>
@@ -734,7 +734,7 @@
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
     </row>
-    <row r="20" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" ht="21" x14ac:dyDescent="0.4">
       <c r="A20" s="4" t="s">
         <v>4</v>
       </c>
@@ -752,7 +752,7 @@
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
     </row>
-    <row r="21" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" ht="21" x14ac:dyDescent="0.4">
       <c r="A21" s="4" t="s">
         <v>5</v>
       </c>
@@ -770,7 +770,7 @@
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
     </row>
-    <row r="22" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" ht="21" x14ac:dyDescent="0.4">
       <c r="A22" s="4" t="s">
         <v>6</v>
       </c>
@@ -788,7 +788,7 @@
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
     </row>
-    <row r="23" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" ht="21" x14ac:dyDescent="0.4">
       <c r="A23" s="4" t="s">
         <v>8</v>
       </c>
@@ -798,7 +798,7 @@
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" ht="21" x14ac:dyDescent="0.4">
       <c r="A24" s="4" t="s">
         <v>13</v>
       </c>
@@ -808,7 +808,7 @@
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" ht="21" x14ac:dyDescent="0.4">
       <c r="A25" s="4" t="s">
         <v>16</v>
       </c>
@@ -818,7 +818,7 @@
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
     </row>
-    <row r="26" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" ht="21" x14ac:dyDescent="0.4">
       <c r="A26" s="4" t="s">
         <v>17</v>
       </c>

--- a/experimental_weights.xlsx
+++ b/experimental_weights.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\OneDrive - Virginia Tech\Documents\GitHub\Team_45_FFUAV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E80988D-6B3F-48B8-B05A-146DA29E60DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7520EB1D-F7C3-4398-91E5-96BD3DB65A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15360" yWindow="0" windowWidth="15360" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
   <si>
     <t>Airframe</t>
   </si>
@@ -71,9 +71,6 @@
     <t>ESC's</t>
   </si>
   <si>
-    <t>Battery</t>
-  </si>
-  <si>
     <t>Aicraft Empty Weight</t>
   </si>
   <si>
@@ -98,14 +95,26 @@
     <t>Weight (g)</t>
   </si>
   <si>
-    <t>49.74 lbs</t>
+    <t>Arm Strut Joints</t>
+  </si>
+  <si>
+    <t>Arm Strut Bar</t>
+  </si>
+  <si>
+    <t>Batteries</t>
+  </si>
+  <si>
+    <t>Grams</t>
+  </si>
+  <si>
+    <t>Lbs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,6 +148,14 @@
     </font>
     <font>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -180,7 +197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -190,6 +207,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -506,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S26"/>
+  <dimension ref="A3:S26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -524,18 +551,11 @@
     <col min="11" max="11" width="16.6640625" customWidth="1"/>
     <col min="12" max="12" width="20.5546875" customWidth="1"/>
     <col min="13" max="13" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.5546875" customWidth="1"/>
+    <col min="17" max="17" width="4" customWidth="1"/>
+    <col min="18" max="18" width="18" customWidth="1"/>
+    <col min="19" max="19" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="R1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="S1" s="5">
-        <f>M5+M18</f>
-        <v>22561</v>
-      </c>
-    </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="J3" s="6" t="s">
         <v>0</v>
@@ -543,6 +563,8 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="5"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="J4" s="6"/>
@@ -550,7 +572,7 @@
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
     </row>
-    <row r="5" spans="1:19" ht="21" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:19" ht="25.8" x14ac:dyDescent="0.5">
       <c r="J5" s="3" t="s">
         <v>3</v>
       </c>
@@ -561,9 +583,13 @@
         <v>7</v>
       </c>
       <c r="M5" s="3">
-        <f xml:space="preserve"> SUM(K6:K13)</f>
-        <v>8359</v>
-      </c>
+        <f xml:space="preserve"> SUM(K6:K15)</f>
+        <v>9399</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="S5" s="8"/>
     </row>
     <row r="6" spans="1:19" ht="21" x14ac:dyDescent="0.4">
       <c r="J6" s="4" t="s">
@@ -574,6 +600,12 @@
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
+      <c r="R6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="S6" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="7" spans="1:19" ht="21" x14ac:dyDescent="0.4">
       <c r="J7" s="4" t="s">
@@ -584,8 +616,12 @@
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
-      <c r="S7" t="s">
-        <v>20</v>
+      <c r="R7" s="10">
+        <f>SUM(M5,M21)</f>
+        <v>23601</v>
+      </c>
+      <c r="S7" s="10">
+        <v>52.031298</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="21" x14ac:dyDescent="0.4">
@@ -620,7 +656,7 @@
     </row>
     <row r="11" spans="1:19" ht="21" x14ac:dyDescent="0.4">
       <c r="J11" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K11" s="4">
         <v>60</v>
@@ -635,7 +671,7 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="J12" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K12" s="4">
         <v>94</v>
@@ -649,7 +685,7 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="J13" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K13" s="4">
         <f>17*4</f>
@@ -658,11 +694,31 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="21" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
+      <c r="J14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" s="7">
+        <f>8*70</f>
+        <v>560</v>
+      </c>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:19" ht="21" x14ac:dyDescent="0.4">
+      <c r="J15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="7">
+        <f>8*60</f>
+        <v>480</v>
+      </c>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
@@ -671,22 +727,12 @@
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
-      <c r="J16" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
     </row>
     <row r="18" spans="1:13" ht="21" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
@@ -702,19 +748,6 @@
         <f>SUM(B4:B14)</f>
         <v>0</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M18" s="3">
-        <f>SUM(K19:K29)</f>
-        <v>14202</v>
-      </c>
     </row>
     <row r="19" spans="1:13" ht="21" x14ac:dyDescent="0.4">
       <c r="A19" s="4" t="s">
@@ -725,14 +758,12 @@
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
-      <c r="J19" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K19" s="4">
-        <v>4638</v>
-      </c>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
+      <c r="J19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
     </row>
     <row r="20" spans="1:13" ht="21" x14ac:dyDescent="0.4">
       <c r="A20" s="4" t="s">
@@ -743,14 +774,10 @@
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
-      <c r="J20" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K20" s="4">
-        <v>744</v>
-      </c>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
     </row>
     <row r="21" spans="1:13" ht="21" x14ac:dyDescent="0.4">
       <c r="A21" s="4" t="s">
@@ -761,14 +788,19 @@
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
-      <c r="J21" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K21" s="4">
-        <v>8630</v>
-      </c>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
+      <c r="J21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M21" s="3">
+        <f>SUM(K22:K29)</f>
+        <v>14202</v>
+      </c>
     </row>
     <row r="22" spans="1:13" ht="21" x14ac:dyDescent="0.4">
       <c r="A22" s="4" t="s">
@@ -780,10 +812,10 @@
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="J22" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K22" s="4">
-        <v>190</v>
+        <v>4638</v>
       </c>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
@@ -797,30 +829,54 @@
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
+      <c r="J23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K23" s="4">
+        <v>744</v>
+      </c>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
     </row>
     <row r="24" spans="1:13" ht="21" x14ac:dyDescent="0.4">
       <c r="A24" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B24" s="4">
         <v>60</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
+      <c r="J24" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" s="4">
+        <v>8630</v>
+      </c>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
     </row>
     <row r="25" spans="1:13" ht="21" x14ac:dyDescent="0.4">
       <c r="A25" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B25" s="4">
         <v>94</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
+      <c r="J25" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K25" s="4">
+        <v>190</v>
+      </c>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
     </row>
     <row r="26" spans="1:13" ht="21" x14ac:dyDescent="0.4">
       <c r="A26" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B26" s="4">
         <f>17*4</f>
@@ -830,10 +886,11 @@
       <c r="D26" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A16:D17"/>
-    <mergeCell ref="J16:M17"/>
+    <mergeCell ref="J19:M20"/>
     <mergeCell ref="J3:M4"/>
+    <mergeCell ref="R5:S5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
